--- a/Projects tracking/Screw VV/ScrewVV_tracking.xlsx
+++ b/Projects tracking/Screw VV/ScrewVV_tracking.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K89"/>
+  <dimension ref="A1:K103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,7 +437,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="9" customWidth="1" min="1" max="1"/>
     <col width="19" customWidth="1" min="2" max="2"/>
     <col width="44" customWidth="1" min="3" max="3"/>
     <col width="16" customWidth="1" min="4" max="4"/>
@@ -566,7 +566,7 @@
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" s="2" t="n">
-        <v>44949</v>
+        <v>44966</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -579,16 +579,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1089</v>
+        <v>1057</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Venu 3</t>
+          <t>Descent Mk3 Series - Large</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Fitness</t>
+          <t>Outdoor</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -603,7 +603,7 @@
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" s="2" t="n">
-        <v>44925</v>
+        <v>45089</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -616,16 +616,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>EPIX PRO (Gen 2) 42mm</t>
+          <t>Venu 3</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outdoor</t>
+          <t>Fitness</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -635,26 +635,24 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Complete</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>44858</v>
-      </c>
+          <t>Incomplete</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" s="2" t="n">
-        <v>44862</v>
+        <v>44925</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>(Confirmed by DPQE)</t>
+          <t>Confirmed by DPQE</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>aalto.lo@garmin.com</t>
+          <t>howard.jen@garmin.com</t>
         </is>
       </c>
     </row>
@@ -677,34 +675,44 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>GMLA3</t>
+          <t>GMLA2</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Incomplete</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
+          <t>Complete</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>44858</v>
+      </c>
       <c r="H6" s="2" t="n">
-        <v>44937</v>
+        <v>44862</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>(Confirmed by DPQE)</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>aalto.lo@garmin.com</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1112</v>
+        <v>1092</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Instinct 2X Solar</t>
+          <t>EPIX PRO (Gen 2) 42mm</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -714,7 +722,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>GMLA2</t>
+          <t>GMLA3</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -724,7 +732,7 @@
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" s="2" t="n">
-        <v>44929</v>
+        <v>44967</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -737,21 +745,21 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Forerunner 265s</t>
+          <t>Instinct 2X Solar</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Fitness</t>
+          <t>Outdoor</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>GMLA3</t>
+          <t>GMLA2</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -760,22 +768,22 @@
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>44908</v>
+        <v>44926</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>44917</v>
+        <v>44929</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Screw torque validation result of the latest torque value is pass for 0.7 kf-cm </t>
+          <t>Do not have screw V&amp;V result.</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>ernest.fu@garmin.com</t>
+          <t>aalto.lo@garmin.com</t>
         </is>
       </c>
     </row>
@@ -784,11 +792,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1065</v>
+        <v>1112</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>eTrex Solar</t>
+          <t>Instinct 2X Solar</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -798,7 +806,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>GMLA2</t>
+          <t>GMLA3</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -808,7 +816,7 @@
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" s="2" t="n">
-        <v>45057</v>
+        <v>44958</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -821,11 +829,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1069</v>
+        <v>1118</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Edge 540 840</t>
+          <t>Forerunner 265s</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -844,22 +852,22 @@
         </is>
       </c>
       <c r="G10" s="2" t="n">
-        <v>44903</v>
+        <v>44908</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>44907</v>
+        <v>44917</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Broken torque report. Need more sample to check the torque validation</t>
+          <t xml:space="preserve">Screw torque validation result of the latest torque value is pass for 0.7 kf-cm </t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>chris.kuo@garmin.com</t>
+          <t>ernest.fu@garmin.com</t>
         </is>
       </c>
     </row>
@@ -868,11 +876,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1103</v>
+        <v>1123</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Forerunner 965</t>
+          <t>Lily 2</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -882,49 +890,37 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>GMLA3</t>
+          <t>GMLA2</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Complete</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="n">
-        <v>44910</v>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>44914</v>
-      </c>
+          <t>Incomplete</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>(Confirmed by DPQE)</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>aalto.lo@garmin.com</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1147</v>
+        <v>1065</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ECHOMAP Ultra 2</t>
+          <t>eTrex Solar</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Marine</t>
+          <t>Outdoor</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -939,7 +935,7 @@
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" s="2" t="n">
-        <v>45111</v>
+        <v>45057</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -952,16 +948,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1147</v>
+        <v>1069</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ECHOMAP Ultra 2</t>
+          <t>Edge 540 840</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Marine</t>
+          <t>Fitness</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -971,64 +967,86 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Incomplete</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
+          <t>Complete</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>44903</v>
+      </c>
       <c r="H13" s="2" t="n">
-        <v>45195</v>
+        <v>44907</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Broken torque report. Need more sample to check the torque validation</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>chris.kuo@garmin.com</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1149</v>
+        <v>1103</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Fusion - RA800</t>
+          <t>Forerunner 965</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Marine</t>
+          <t>Fitness</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>GMLA2</t>
+          <t>GMLA3</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Incomplete</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
+          <t>Complete</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>44910</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>44914</v>
+      </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>(Confirmed by DPQE)</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>aalto.lo@garmin.com</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Fusion - RA800</t>
+          <t>ECHOMAP Ultra 2</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1038,7 +1056,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>GMLA3</t>
+          <t>GMLA2</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1047,7 +1065,9 @@
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
+      <c r="H15" s="2" t="n">
+        <v>45111</v>
+      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
@@ -1059,11 +1079,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Flush Mount Stainless Steel Camera</t>
+          <t>ECHOMAP Ultra 2</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1073,7 +1093,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>GMLA2</t>
+          <t>GMLA3</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1082,7 +1102,9 @@
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
+      <c r="H16" s="2" t="n">
+        <v>45195</v>
+      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
@@ -1094,11 +1116,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Flush Mount Stainless Steel Camera</t>
+          <t>Fusion - RA800</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1108,7 +1130,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>GMLA3</t>
+          <t>GMLA2</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1117,9 +1139,7 @@
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
-      <c r="H17" s="2" t="n">
-        <v>45334</v>
-      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
         <v>0</v>
       </c>
@@ -1131,21 +1151,21 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1155</v>
+        <v>1149</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Large Format TXi</t>
+          <t>Fusion - RA800</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>Marine</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>GMLA2</t>
+          <t>GMLA3</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1166,21 +1186,21 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Large Format TXi</t>
+          <t>Flush Mount Stainless Steel Camera</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>Marine</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>GMLA3</t>
+          <t>GMLA2</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1201,21 +1221,21 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Descent T2 Transceiver</t>
+          <t>Flush Mount Stainless Steel Camera</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Outdoor</t>
+          <t>Marine</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>GMLA2</t>
+          <t>GMLA3</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1224,7 +1244,9 @@
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
+      <c r="H20" s="2" t="n">
+        <v>45334</v>
+      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
@@ -1236,21 +1258,21 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Descent T2 Transceiver</t>
+          <t>Large Format TXi</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Outdoor</t>
+          <t>Aviation</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>GMLA3</t>
+          <t>GMLA2</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1271,21 +1293,21 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1016</v>
+        <v>1155</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Xero L60i Laser Navigator</t>
+          <t>Large Format TXi</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Outdoor</t>
+          <t>Aviation</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>GMLA2</t>
+          <t>GMLA3</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1294,9 +1316,7 @@
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" s="2" t="n">
-        <v>45089</v>
-      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
         <v>0</v>
       </c>
@@ -1308,58 +1328,46 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1041</v>
+        <v>1157</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ECHOMAP UHD2 (Touch) 9"</t>
+          <t>Descent T2 Transceiver</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Marine</t>
+          <t>Outdoor</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>GMLA3</t>
+          <t>GMLA2</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Complete</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="n">
-        <v>44893</v>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>44893</v>
-      </c>
+          <t>Incomplete</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>As attachment</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>jasoncy.hsu@garmin.com</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1075</v>
+        <v>1157</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>fenix 7 Pro</t>
+          <t>Descent T2 Transceiver</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1369,54 +1377,42 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>GMLA2</t>
+          <t>GMLA3</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Complete</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="n">
-        <v>44886</v>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>44887</v>
-      </c>
+          <t>Incomplete</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Checked</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>howard.jen@garmin.com</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1075</v>
+        <v>1158</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>fenix 7 Pro</t>
+          <t>2024 Value Dash Cams(Mini3)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Outdoor</t>
+          <t>Automotive</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>GMLA3</t>
+          <t>GMLA2</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1425,9 +1421,7 @@
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
-      <c r="H25" s="2" t="n">
-        <v>44987</v>
-      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
         <v>0</v>
       </c>
@@ -1439,59 +1433,46 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1078</v>
+        <v>1158</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Foretrex 801/901</t>
+          <t>2024 Value Dash Cams(Mini3)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Outdoor</t>
+          <t>Automotive</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>GMLA2</t>
+          <t>GMLA3</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Complete</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="n">
-        <v>44868</v>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>44868</v>
-      </c>
+          <t>Incomplete</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>1. No upload Broken torque report 
-2. Screw V&amp;V failed</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>ernest.fu@garmin.com</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1078</v>
+        <v>1016</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Foretrex 801/901</t>
+          <t>Xero L60i Laser Navigator</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1501,7 +1482,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>GMLA3</t>
+          <t>GMLA2</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1511,7 +1492,7 @@
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" s="2" t="n">
-        <v>44958</v>
+        <v>45089</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -1524,11 +1505,11 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1081</v>
+        <v>1041</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Serv  - 10"</t>
+          <t>ECHOMAP UHD2 (Touch) 9"</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1538,7 +1519,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>GMLA2</t>
+          <t>GMLA3</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1547,17 +1528,17 @@
         </is>
       </c>
       <c r="G28" s="2" t="n">
-        <v>44875</v>
+        <v>44893</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>44875</v>
+        <v>44893</v>
       </c>
       <c r="I28" t="n">
         <v>1</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>As attachment</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -1571,53 +1552,63 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Serv  - 10"</t>
+          <t>fenix 7 Pro</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Marine</t>
+          <t>Outdoor</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>GMLA3</t>
+          <t>GMLA2</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Incomplete</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr"/>
+          <t>Complete</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>44886</v>
+      </c>
       <c r="H29" s="2" t="n">
-        <v>44991</v>
+        <v>44887</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Checked</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>howard.jen@garmin.com</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1131</v>
+        <v>1075</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Drive 53</t>
+          <t>fenix 7 Pro</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Automotive</t>
+          <t>Outdoor</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1627,44 +1618,34 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Complete</t>
-        </is>
-      </c>
-      <c r="G30" s="2" t="n">
-        <v>44896</v>
-      </c>
+          <t>Incomplete</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" s="2" t="n">
-        <v>44896</v>
+        <v>44987</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>Screw V &amp; V and screw torque are provided. Screw V &amp; V result pass.</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>wendy.ni@garmin.com</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1048</v>
+        <v>1078</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Product - GDU77XW</t>
+          <t>Foretrex 801/901</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>Outdoor</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1674,37 +1655,50 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Incomplete</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
+          <t>Complete</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>44868</v>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>44868</v>
+      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>1. No upload Broken torque report 
+2. Screw V&amp;V failed</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>ernest.fu@garmin.com</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1051</v>
+        <v>1078</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>GPSMAP 9000 - 19"</t>
+          <t>Foretrex 801/901</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Marine</t>
+          <t>Outdoor</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>GMLA2</t>
+          <t>GMLA3</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1714,7 +1708,7 @@
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" s="2" t="n">
-        <v>45001</v>
+        <v>44958</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -1727,11 +1721,11 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1053</v>
+        <v>1081</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>GPSMAP 9000 - 24"</t>
+          <t>Serv  - 10"</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1746,29 +1740,39 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Incomplete</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr"/>
+          <t>Complete</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>44875</v>
+      </c>
       <c r="H33" s="2" t="n">
-        <v>45001</v>
+        <v>44875</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>jasoncy.hsu@garmin.com</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1054</v>
+        <v>1081</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>GPSMAP 9000 -27"</t>
+          <t>Serv  - 10"</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1778,7 +1782,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>GMLA2</t>
+          <t>GMLA3</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1788,7 +1792,7 @@
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" s="2" t="n">
-        <v>45001</v>
+        <v>44991</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -1801,21 +1805,21 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1093</v>
+        <v>1131</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>EPIX PRO (Gen 2) 47mm</t>
+          <t>Drive 53</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Outdoor</t>
+          <t>Automotive</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>GMLA2</t>
+          <t>GMLA3</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1824,22 +1828,22 @@
         </is>
       </c>
       <c r="G35" s="2" t="n">
-        <v>44865</v>
+        <v>44896</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>44865</v>
+        <v>44896</v>
       </c>
       <c r="I35" t="n">
         <v>1</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>(Confirmed by DPQE)</t>
+          <t>Screw V &amp; V and screw torque are provided. Screw V &amp; V result pass.</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>howard.jen@garmin.com</t>
+          <t>wendy.ni@garmin.com</t>
         </is>
       </c>
     </row>
@@ -1848,21 +1852,21 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1093</v>
+        <v>1048</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>EPIX PRO (Gen 2) 47mm</t>
+          <t>Product - GDU77XW</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Outdoor</t>
+          <t>Aviation</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>GMLA3</t>
+          <t>GMLA2</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1871,9 +1875,7 @@
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
-      <c r="H36" s="2" t="n">
-        <v>44952</v>
-      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="n">
         <v>0</v>
       </c>
@@ -1885,21 +1887,21 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>856</v>
+        <v>1051</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Alpha Dog Collar</t>
+          <t>GPSMAP 9000 - 19"</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Outdoor</t>
+          <t>Marine</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>GMLA3</t>
+          <t>GMLA2</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1909,7 +1911,7 @@
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" s="2" t="n">
-        <v>44937</v>
+        <v>45001</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -1922,21 +1924,21 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>989</v>
+        <v>1053</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Xero C1 Chronograph</t>
+          <t>GPSMAP 9000 - 24"</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Outdoor</t>
+          <t>Marine</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>GMLA3</t>
+          <t>GMLA2</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1959,11 +1961,11 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1018</v>
+        <v>1054</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ECHOMAP UHD2 (Touch) 6"</t>
+          <t>GPSMAP 9000 -27"</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1973,49 +1975,39 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>GMLA3</t>
+          <t>GMLA2</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Complete</t>
-        </is>
-      </c>
-      <c r="G39" s="2" t="n">
-        <v>44893</v>
-      </c>
+          <t>Incomplete</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
       <c r="H39" s="2" t="n">
-        <v>44893</v>
+        <v>45001</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>As attachment</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>jasoncy.hsu@garmin.com</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1101</v>
+        <v>1093</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>zumo XT2</t>
+          <t>EPIX PRO (Gen 2) 47mm</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Automotive</t>
+          <t>Outdoor</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2029,22 +2021,22 @@
         </is>
       </c>
       <c r="G40" s="2" t="n">
-        <v>44880</v>
+        <v>44865</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>44880</v>
+        <v>44865</v>
       </c>
       <c r="I40" t="n">
         <v>1</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Screw torque V &amp; V pass. (refer the attachment)</t>
+          <t>(Confirmed by DPQE)</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>wendy.ni@garmin.com</t>
+          <t>howard.jen@garmin.com</t>
         </is>
       </c>
     </row>
@@ -2053,16 +2045,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1101</v>
+        <v>1093</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>zumo XT2</t>
+          <t>EPIX PRO (Gen 2) 47mm</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Automotive</t>
+          <t>Outdoor</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2077,7 +2069,7 @@
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" s="2" t="n">
-        <v>44956</v>
+        <v>44977</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -2090,21 +2082,21 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1145</v>
+        <v>856</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Forerunner 165 and 165 Music</t>
+          <t>Alpha Dog Collar</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Fitness</t>
+          <t>Outdoor</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>GMLA2</t>
+          <t>GMLA3</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2114,7 +2106,7 @@
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" s="2" t="n">
-        <v>45145</v>
+        <v>44967</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -2127,16 +2119,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1145</v>
+        <v>989</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Forerunner 165 and 165 Music</t>
+          <t>Xero C1 Chronograph</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Fitness</t>
+          <t>Outdoor</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2151,7 +2143,7 @@
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" s="2" t="n">
-        <v>45244</v>
+        <v>45001</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -2164,86 +2156,110 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1047</v>
+        <v>1018</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Enduro 2023</t>
+          <t>ECHOMAP UHD2 (Touch) 6"</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Outdoor</t>
+          <t>Marine</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>GMLA2</t>
+          <t>GMLA3</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Incomplete</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
+          <t>Complete</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="n">
+        <v>44893</v>
+      </c>
+      <c r="H44" s="2" t="n">
+        <v>44893</v>
+      </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>As attachment</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>jasoncy.hsu@garmin.com</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1047</v>
+        <v>1101</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Enduro 2023</t>
+          <t>zumo XT2</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Outdoor</t>
+          <t>Automotive</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>GMLA3</t>
+          <t>GMLA2</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Incomplete</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
+          <t>Complete</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="n">
+        <v>44880</v>
+      </c>
+      <c r="H45" s="2" t="n">
+        <v>44880</v>
+      </c>
       <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Screw torque V &amp; V pass. (refer the attachment)</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>wendy.ni@garmin.com</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Forerunner 265</t>
+          <t>zumo XT2</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Fitness</t>
+          <t>Automotive</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2257,22 +2273,22 @@
         </is>
       </c>
       <c r="G46" s="2" t="n">
-        <v>44908</v>
+        <v>44936</v>
       </c>
       <c r="H46" s="2" t="n">
-        <v>44916</v>
+        <v>44936</v>
       </c>
       <c r="I46" t="n">
         <v>1</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Screw torque test pass</t>
+          <t>Screw torque V &amp; V pass. (refer the attachment)</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>evelyn.wang@garmin.com</t>
+          <t>wendy.ni@garmin.com</t>
         </is>
       </c>
     </row>
@@ -2281,11 +2297,11 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Tacx FLUX 3M</t>
+          <t>Forerunner 165 and 165 Music</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2304,7 +2320,9 @@
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
+      <c r="H47" s="2" t="n">
+        <v>45145</v>
+      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
@@ -2316,11 +2334,11 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Tacx FLUX 3M</t>
+          <t>Forerunner 165 and 165 Music</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2339,7 +2357,9 @@
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
+      <c r="H48" s="2" t="n">
+        <v>45244</v>
+      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
@@ -2351,16 +2371,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1150</v>
+        <v>1047</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Motorcycle Radar 2023</t>
+          <t>Enduro 2023</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Automotive</t>
+          <t>Outdoor</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2386,16 +2406,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1150</v>
+        <v>1047</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Motorcycle Radar 2023</t>
+          <t>Enduro 2023</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Automotive</t>
+          <t>Outdoor</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2421,21 +2441,21 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>962</v>
+        <v>1107</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>BlueNET Switch</t>
+          <t>Forerunner 265</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Marine</t>
+          <t>Fitness</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>GMLA2</t>
+          <t>GMLA3</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2444,22 +2464,22 @@
         </is>
       </c>
       <c r="G51" s="2" t="n">
-        <v>44854</v>
+        <v>44908</v>
       </c>
       <c r="H51" s="2" t="n">
-        <v>44855</v>
+        <v>44916</v>
       </c>
       <c r="I51" t="n">
         <v>1</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Screw V&amp;V is pass.</t>
+          <t>Screw torque test pass</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>wendy.ni@garmin.com</t>
+          <t>evelyn.wang@garmin.com</t>
         </is>
       </c>
     </row>
@@ -2468,21 +2488,21 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>962</v>
+        <v>1148</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>BlueNET Switch</t>
+          <t>Tacx FLUX 3M</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Marine</t>
+          <t>Fitness</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>GMLA3</t>
+          <t>GMLA2</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2491,9 +2511,7 @@
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
-      <c r="H52" s="2" t="n">
-        <v>44991</v>
-      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="n">
         <v>0</v>
       </c>
@@ -2505,21 +2523,21 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1006</v>
+        <v>1148</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Descent S1 Buoy</t>
+          <t>Tacx FLUX 3M</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Outdoor</t>
+          <t>Fitness</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>GMLA2</t>
+          <t>GMLA3</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2528,9 +2546,7 @@
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
-      <c r="H53" s="2" t="n">
-        <v>44967</v>
-      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="n">
         <v>0</v>
       </c>
@@ -2542,16 +2558,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1068</v>
+        <v>1163</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>GSD28</t>
+          <t>Lily Athlete</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Marine</t>
+          <t>Fitness</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2565,9 +2581,7 @@
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
-      <c r="H54" s="2" t="n">
-        <v>45041</v>
-      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="n">
         <v>0</v>
       </c>
@@ -2579,21 +2593,21 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1129</v>
+        <v>1163</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>GT15M Thru-Hull Flush</t>
+          <t>Lily Athlete</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Marine</t>
+          <t>Fitness</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>GMLA2</t>
+          <t>GMLA3</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2602,9 +2616,7 @@
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
-      <c r="H55" s="2" t="n">
-        <v>45008</v>
-      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="n">
         <v>0</v>
       </c>
@@ -2616,16 +2628,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1102</v>
+        <v>1150</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Varia eBike Radar Tail Light (eRTL615)</t>
+          <t>Motorcycle Radar 2023</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Fitness</t>
+          <t>Automotive</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2635,44 +2647,32 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Complete</t>
-        </is>
-      </c>
-      <c r="G56" s="2" t="n">
-        <v>44868</v>
-      </c>
-      <c r="H56" s="2" t="n">
-        <v>44874</v>
-      </c>
+          <t>Incomplete</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="n">
-        <v>1</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Screw torque review and update as attachment</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>chris.kuo@garmin.com</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1102</v>
+        <v>1150</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Varia eBike Radar Tail Light (eRTL615)</t>
+          <t>Motorcycle Radar 2023</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Fitness</t>
+          <t>Automotive</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2686,9 +2686,7 @@
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
-      <c r="H57" s="2" t="n">
-        <v>44946</v>
-      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="n">
         <v>0</v>
       </c>
@@ -2700,11 +2698,11 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1105</v>
+        <v>962</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>GMR xHD3 Magnetron Open Arrays</t>
+          <t>GMS 20 Switch</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2723,22 +2721,22 @@
         </is>
       </c>
       <c r="G58" s="2" t="n">
-        <v>44904</v>
+        <v>44854</v>
       </c>
       <c r="H58" s="2" t="n">
-        <v>44911</v>
+        <v>44855</v>
       </c>
       <c r="I58" t="n">
         <v>1</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Checked</t>
+          <t>Screw V&amp;V is pass.</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>jasoncy.hsu@garmin.com</t>
+          <t>wendy.ni@garmin.com</t>
         </is>
       </c>
     </row>
@@ -2747,11 +2745,11 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1105</v>
+        <v>962</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>GMR xHD3 Magnetron Open Arrays</t>
+          <t>GMS 20 Switch</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2771,7 +2769,7 @@
       </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" s="2" t="n">
-        <v>44992</v>
+        <v>44991</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -2784,11 +2782,11 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1153</v>
+        <v>1006</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Montana 7xx Parts Shortage Redesign</t>
+          <t>Descent S1 Buoy</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2807,7 +2805,9 @@
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
+      <c r="H60" s="2" t="n">
+        <v>44967</v>
+      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
@@ -2819,21 +2819,21 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1153</v>
+        <v>1068</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Montana 7xx Parts Shortage Redesign</t>
+          <t>GSD28</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Outdoor</t>
+          <t>Marine</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>GMLA3</t>
+          <t>GMLA2</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2842,7 +2842,9 @@
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
+      <c r="H61" s="2" t="n">
+        <v>45041</v>
+      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
@@ -2854,11 +2856,11 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1052</v>
+        <v>1129</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>GPSMAP 9000 - 22"</t>
+          <t>GT15M Thru-Hull Flush</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2878,7 +2880,7 @@
       </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" s="2" t="n">
-        <v>45001</v>
+        <v>45008</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -2891,21 +2893,21 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1059</v>
+        <v>1102</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>ECHOMAP UHD2 (Touch) 7"</t>
+          <t>Varia eBike Radar Tail Light (eRTL615)</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Marine</t>
+          <t>Fitness</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>GMLA3</t>
+          <t>GMLA2</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -2914,22 +2916,22 @@
         </is>
       </c>
       <c r="G63" s="2" t="n">
-        <v>44893</v>
+        <v>44868</v>
       </c>
       <c r="H63" s="2" t="n">
-        <v>44893</v>
+        <v>44874</v>
       </c>
       <c r="I63" t="n">
         <v>1</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>As attachment</t>
+          <t>Screw torque review and update as attachment</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>jasoncy.hsu@garmin.com</t>
+          <t>chris.kuo@garmin.com</t>
         </is>
       </c>
     </row>
@@ -2938,21 +2940,21 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1088</v>
+        <v>1102</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Approach S70</t>
+          <t>Varia eBike Radar Tail Light (eRTL615)</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Outdoor</t>
+          <t>Fitness</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>GMLA2</t>
+          <t>GMLA3</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2962,29 +2964,37 @@
       </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" s="2" t="n">
-        <v>44949</v>
+        <v>44958</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Broken torque report update</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>chris.kuo@garmin.com</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1076</v>
+        <v>1105</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>fenix 7S Pro (2022)</t>
+          <t>GMR xHD3 Magnetron Open Arrays</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Outdoor</t>
+          <t>Marine</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2998,22 +3008,22 @@
         </is>
       </c>
       <c r="G65" s="2" t="n">
-        <v>44886</v>
+        <v>44904</v>
       </c>
       <c r="H65" s="2" t="n">
-        <v>44886</v>
+        <v>44911</v>
       </c>
       <c r="I65" t="n">
         <v>1</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Confirmed by DPQE</t>
+          <t>Checked</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>howard.jen@garmin.com</t>
+          <t>jasoncy.hsu@garmin.com</t>
         </is>
       </c>
     </row>
@@ -3022,16 +3032,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1076</v>
+        <v>1105</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>fenix 7S Pro (2022)</t>
+          <t>GMR xHD3 Magnetron Open Arrays</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Outdoor</t>
+          <t>Marine</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3046,7 +3056,7 @@
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" s="2" t="n">
-        <v>44937</v>
+        <v>45008</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -3059,11 +3069,11 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1077</v>
+        <v>1153</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>fenix 7X Pro</t>
+          <t>Montana 7xx Parts Shortage Redesign</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3078,39 +3088,27 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Complete</t>
-        </is>
-      </c>
-      <c r="G67" s="2" t="n">
-        <v>44896</v>
-      </c>
-      <c r="H67" s="2" t="n">
-        <v>44896</v>
-      </c>
+          <t>Incomplete</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="n">
-        <v>1</v>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>Checked</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>howard.jen@garmin.com</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1077</v>
+        <v>1153</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>fenix 7X Pro</t>
+          <t>Montana 7xx Parts Shortage Redesign</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3129,9 +3127,7 @@
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
-      <c r="H68" s="2" t="n">
-        <v>44970</v>
-      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="n">
         <v>0</v>
       </c>
@@ -3143,16 +3139,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1120</v>
+        <v>1052</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Catalyst KMR - Display</t>
+          <t>GPSMAP 9000 - 22"</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Automotive</t>
+          <t>Marine</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3167,7 +3163,7 @@
       </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" s="2" t="n">
-        <v>45007</v>
+        <v>45001</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -3180,56 +3176,68 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1137</v>
+        <v>1059</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Edge 1050</t>
+          <t>ECHOMAP UHD2 (Touch) 7"</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Fitness</t>
+          <t>Marine</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>GMLA2</t>
+          <t>GMLA3</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Incomplete</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
+          <t>Complete</t>
+        </is>
+      </c>
+      <c r="G70" s="2" t="n">
+        <v>44893</v>
+      </c>
+      <c r="H70" s="2" t="n">
+        <v>44893</v>
+      </c>
       <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>As attachment</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>jasoncy.hsu@garmin.com</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1137</v>
+        <v>1088</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Edge 1050</t>
+          <t>Approach S70</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Fitness</t>
+          <t>Outdoor</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>GMLA3</t>
+          <t>GMLA2</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -3238,7 +3246,9 @@
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
+      <c r="H71" s="2" t="n">
+        <v>44966</v>
+      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
@@ -3250,16 +3260,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>833</v>
+        <v>1159</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Panoptix PS70 - (SSMB)</t>
+          <t>2024 Value Dash Cams(DC48)</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Marine</t>
+          <t>Automotive</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3269,44 +3279,32 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Complete</t>
-        </is>
-      </c>
-      <c r="G72" s="2" t="n">
-        <v>44893</v>
-      </c>
-      <c r="H72" s="2" t="n">
-        <v>44893</v>
-      </c>
+          <t>Incomplete</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="n">
-        <v>1</v>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>confirmed.</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>evelyn.wang@garmin.com</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>833</v>
+        <v>1159</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Panoptix PS70 - (SSMB)</t>
+          <t>2024 Value Dash Cams(DC48)</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Marine</t>
+          <t>Automotive</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3320,9 +3318,7 @@
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
-      <c r="H73" s="2" t="n">
-        <v>44958</v>
-      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="n">
         <v>0</v>
       </c>
@@ -3334,21 +3330,21 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1030</v>
+        <v>1076</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>vivomove Trend (previously "4")</t>
+          <t>fenix 7S Pro (2022)</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Fitness</t>
+          <t>Outdoor</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>GMLA3</t>
+          <t>GMLA2</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3357,22 +3353,22 @@
         </is>
       </c>
       <c r="G74" s="2" t="n">
-        <v>44848</v>
+        <v>44886</v>
       </c>
       <c r="H74" s="2" t="n">
-        <v>44853</v>
+        <v>44886</v>
       </c>
       <c r="I74" t="n">
         <v>1</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>(Confirmed by DPQE)</t>
+          <t>Confirmed by DPQE</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>aalto.lo@garmin.com</t>
+          <t>howard.jen@garmin.com</t>
         </is>
       </c>
     </row>
@@ -3381,11 +3377,11 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1044</v>
+        <v>1076</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>eTrex SE</t>
+          <t>fenix 7S Pro (2022)</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3400,44 +3396,34 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Complete</t>
-        </is>
-      </c>
-      <c r="G75" s="2" t="n">
-        <v>44873</v>
-      </c>
+          <t>Incomplete</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr"/>
       <c r="H75" s="2" t="n">
-        <v>44873</v>
+        <v>44998</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>Screw torque review update</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>chris.kuo@garmin.com</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>961</v>
+        <v>1077</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>BlueNET Gateway</t>
+          <t>fenix 7X Pro</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Marine</t>
+          <t>Outdoor</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3451,22 +3437,22 @@
         </is>
       </c>
       <c r="G76" s="2" t="n">
-        <v>44854</v>
+        <v>44896</v>
       </c>
       <c r="H76" s="2" t="n">
-        <v>44855</v>
+        <v>44896</v>
       </c>
       <c r="I76" t="n">
         <v>1</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Screw V&amp;V is pass.</t>
+          <t>Checked</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>wendy.ni@garmin.com</t>
+          <t>howard.jen@garmin.com</t>
         </is>
       </c>
     </row>
@@ -3475,16 +3461,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>961</v>
+        <v>1077</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>BlueNET Gateway</t>
+          <t>fenix 7X Pro</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Marine</t>
+          <t>Outdoor</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3499,7 +3485,7 @@
       </c>
       <c r="G77" t="inlineStr"/>
       <c r="H77" s="2" t="n">
-        <v>44991</v>
+        <v>44970</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -3512,16 +3498,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Serv - 7"</t>
+          <t>Catalyst KMR - Display</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Marine</t>
+          <t>Automotive</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3531,49 +3517,39 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Complete</t>
-        </is>
-      </c>
-      <c r="G78" s="2" t="n">
-        <v>44875</v>
-      </c>
+          <t>Incomplete</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr"/>
       <c r="H78" s="2" t="n">
-        <v>44875</v>
+        <v>45007</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>jasoncy.hsu@garmin.com</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1080</v>
+        <v>1137</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Serv - 7"</t>
+          <t>Edge 1050</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Marine</t>
+          <t>Fitness</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>GMLA3</t>
+          <t>GMLA2</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -3582,9 +3558,7 @@
         </is>
       </c>
       <c r="G79" t="inlineStr"/>
-      <c r="H79" s="2" t="n">
-        <v>44991</v>
-      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="n">
         <v>0</v>
       </c>
@@ -3596,11 +3570,11 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1090</v>
+        <v>1137</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Venu 3S</t>
+          <t>Edge 1050</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3610,7 +3584,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>GMLA2</t>
+          <t>GMLA3</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -3619,9 +3593,7 @@
         </is>
       </c>
       <c r="G80" t="inlineStr"/>
-      <c r="H80" s="2" t="n">
-        <v>44939</v>
-      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="n">
         <v>0</v>
       </c>
@@ -3633,16 +3605,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1111</v>
+        <v>833</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Catalyst KMR - Hub</t>
+          <t>Panoptix PS70 - (SSMB)</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Automotive</t>
+          <t>Marine</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3652,81 +3624,81 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Incomplete</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr"/>
+          <t>Complete</t>
+        </is>
+      </c>
+      <c r="G81" s="2" t="n">
+        <v>44893</v>
+      </c>
       <c r="H81" s="2" t="n">
-        <v>45007</v>
+        <v>44893</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>confirmed.</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>evelyn.wang@garmin.com</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1094</v>
+        <v>833</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>EPIX PRO (Gen 2) 51mm</t>
+          <t>Panoptix PS70 - (SSMB)</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Outdoor</t>
+          <t>Marine</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>GMLA2</t>
+          <t>GMLA3</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Complete</t>
-        </is>
-      </c>
-      <c r="G82" s="2" t="n">
-        <v>44872</v>
-      </c>
+          <t>Incomplete</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr"/>
       <c r="H82" s="2" t="n">
-        <v>44872</v>
+        <v>45008</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>Confirmed by DPQE</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>howard.jen@garmin.com</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1094</v>
+        <v>1030</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>EPIX PRO (Gen 2) 51mm</t>
+          <t>vivomove Trend (previously "4")</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Outdoor</t>
+          <t>Fitness</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3736,71 +3708,91 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Incomplete</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr"/>
+          <t>Complete</t>
+        </is>
+      </c>
+      <c r="G83" s="2" t="n">
+        <v>44848</v>
+      </c>
       <c r="H83" s="2" t="n">
-        <v>44977</v>
+        <v>44853</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>(Confirmed by DPQE)</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>aalto.lo@garmin.com</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1110</v>
+        <v>1044</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Catalyst KMR - Camera</t>
+          <t>eTrex SE</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Automotive</t>
+          <t>Outdoor</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>GMLA2</t>
+          <t>GMLA3</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Incomplete</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr"/>
+          <t>Complete</t>
+        </is>
+      </c>
+      <c r="G84" s="2" t="n">
+        <v>44873</v>
+      </c>
       <c r="H84" s="2" t="n">
-        <v>45007</v>
+        <v>44873</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Screw torque review update</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>chris.kuo@garmin.com</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1126</v>
+        <v>1164</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>GMR xHD3 Domes (18/24xHD replacement)</t>
+          <t>inReach Messenger 2</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Marine</t>
+          <t>Outdoor</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3814,9 +3806,7 @@
         </is>
       </c>
       <c r="G85" t="inlineStr"/>
-      <c r="H85" s="2" t="n">
-        <v>44952</v>
-      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="n">
         <v>0</v>
       </c>
@@ -3828,21 +3818,21 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1146</v>
+        <v>1164</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>vivoactive 5</t>
+          <t>inReach Messenger 2</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Fitness</t>
+          <t>Outdoor</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>GMLA2</t>
+          <t>GMLA3</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -3851,9 +3841,7 @@
         </is>
       </c>
       <c r="G86" t="inlineStr"/>
-      <c r="H86" s="2" t="n">
-        <v>45005</v>
-      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="n">
         <v>0</v>
       </c>
@@ -3865,48 +3853,58 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1146</v>
+        <v>961</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>vivoactive 5</t>
+          <t>GMG 20 Gateway</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Fitness</t>
+          <t>Marine</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>GMLA3</t>
+          <t>GMLA2</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Incomplete</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr"/>
+          <t>Complete</t>
+        </is>
+      </c>
+      <c r="G87" s="2" t="n">
+        <v>44854</v>
+      </c>
       <c r="H87" s="2" t="n">
-        <v>45104</v>
+        <v>44855</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Screw V&amp;V is pass.</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>wendy.ni@garmin.com</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1156</v>
+        <v>961</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>GPSMAP 16X3 Chartplotters</t>
+          <t>GMG 20 Gateway</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3916,7 +3914,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>GMLA2</t>
+          <t>GMLA3</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -3925,7 +3923,9 @@
         </is>
       </c>
       <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
+      <c r="H88" s="2" t="n">
+        <v>44991</v>
+      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
@@ -3937,35 +3937,575 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
+        <v>1080</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Serv - 7"</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Marine</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>GMLA2</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+      <c r="G89" s="2" t="n">
+        <v>44875</v>
+      </c>
+      <c r="H89" s="2" t="n">
+        <v>44875</v>
+      </c>
+      <c r="I89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>jasoncy.hsu@garmin.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1080</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Serv - 7"</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Marine</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>GMLA3</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" s="2" t="n">
+        <v>44991</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1090</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Venu 3S</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Fitness</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>GMLA2</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" s="2" t="n">
+        <v>44956</v>
+      </c>
+      <c r="I91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Reviewed</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>ernest.fu@garmin.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1111</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Catalyst KMR - Hub</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Automotive</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>GMLA2</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" s="2" t="n">
+        <v>45007</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1141</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>GPSMAP 9500</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Marine</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>GMLA2</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" s="2" t="n">
+        <v>45098</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>787</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>HRM-Pro</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Fitness</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>GMLA2</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>787</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>HRM-Pro</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Fitness</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>GMLA3</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>1094</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>EPIX PRO (Gen 2) 51mm</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>GMLA2</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+      <c r="G96" s="2" t="n">
+        <v>44872</v>
+      </c>
+      <c r="H96" s="2" t="n">
+        <v>44872</v>
+      </c>
+      <c r="I96" t="n">
+        <v>1</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Confirmed by DPQE</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>howard.jen@garmin.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>1094</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>EPIX PRO (Gen 2) 51mm</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>GMLA3</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" s="2" t="n">
+        <v>44977</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>1110</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Catalyst KMR - Camera</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Automotive</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>GMLA2</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" s="2" t="n">
+        <v>45007</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1126</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>GMR xHD3 Domes (18/24xHD replacement)</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Marine</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>GMLA2</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" s="2" t="n">
+        <v>44960</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>1146</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>vivoactive 5</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Fitness</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>GMLA2</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" s="2" t="n">
+        <v>45005</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1146</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>vivoactive 5</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Fitness</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>GMLA3</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" s="2" t="n">
+        <v>45104</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
         <v>1156</v>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C102" t="inlineStr">
         <is>
           <t>GPSMAP 16X3 Chartplotters</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="D102" t="inlineStr">
         <is>
           <t>Marine</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>GMLA2</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1156</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>GPSMAP 16X3 Chartplotters</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Marine</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
         <is>
           <t>GMLA3</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Incomplete</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr"/>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
